--- a/results/pvalue_OFFSIDES_rare_enzyme_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_rare_enzyme_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.129</t>
+          <t>0.635</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.869</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>0.358</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.232</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-1.906</t>
+          <t>-0.512</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.491</t>
+          <t>-0.176</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>1.038</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.691</t>
+          <t>-1.408</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.006</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.729</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
